--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121272a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121272a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2995457678712719</v>
+      </c>
+      <c r="D5">
+        <v>0.3417939455383216</v>
+      </c>
+      <c r="E5">
+        <v>1.710625650036557</v>
+      </c>
+      <c r="F5">
+        <v>0.4565370799449577</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2995457678712719</v>
+        <v>0.8667614985690688</v>
       </c>
       <c r="D6">
-        <v>0.3417939455383216</v>
+        <v>0.9210204405335671</v>
       </c>
       <c r="E6">
-        <v>1.710625650036557</v>
+        <v>6.597043802741831</v>
       </c>
       <c r="F6">
-        <v>0.4565370799449577</v>
+        <v>1.647284799347111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8667614985690688</v>
+        <v>1.258584393165089</v>
       </c>
       <c r="D7">
-        <v>0.9210204405335671</v>
+        <v>1.358385078144728</v>
       </c>
       <c r="E7">
-        <v>6.597043802741831</v>
+        <v>4.636080447263629</v>
       </c>
       <c r="F7">
-        <v>1.647284799347111</v>
+        <v>1.867236975373101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.875886512906626</v>
+      </c>
+      <c r="D8">
+        <v>3.14300572165332</v>
+      </c>
+      <c r="E8">
+        <v>11.40783462485443</v>
+      </c>
+      <c r="F8">
+        <v>5.493982862803471</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.258584393165089</v>
+        <v>2.565144761014023</v>
       </c>
       <c r="D9">
-        <v>1.358385078144728</v>
+        <v>3.029225499506905</v>
       </c>
       <c r="E9">
-        <v>4.636080447263629</v>
+        <v>18.60395990075684</v>
       </c>
       <c r="F9">
-        <v>1.867236975373101</v>
+        <v>4.535800689674307</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.875886512906626</v>
+        <v>2.871554605247698</v>
       </c>
       <c r="D10">
-        <v>3.14300572165332</v>
+        <v>2.485415937701472</v>
       </c>
       <c r="E10">
-        <v>11.40783462485443</v>
+        <v>12.05622686032015</v>
       </c>
       <c r="F10">
-        <v>5.493982862803471</v>
+        <v>3.656001499241293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.565144761014023</v>
+        <v>2.29755641191783</v>
       </c>
       <c r="D11">
-        <v>3.029225499506905</v>
+        <v>2.311726798615131</v>
       </c>
       <c r="E11">
-        <v>18.60395990075684</v>
+        <v>11.63680946619211</v>
       </c>
       <c r="F11">
-        <v>4.535800689674307</v>
+        <v>3.372201731476514</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.871554605247698</v>
+        <v>2.506397597439086</v>
       </c>
       <c r="D12">
-        <v>2.485415937701472</v>
+        <v>2.972706636849476</v>
       </c>
       <c r="E12">
-        <v>12.05622686032015</v>
+        <v>7.187708799752721</v>
       </c>
       <c r="F12">
-        <v>3.656001499241293</v>
+        <v>3.439720338283389</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.29755641191783</v>
+        <v>5.559334851717028</v>
       </c>
       <c r="D13">
-        <v>2.311726798615131</v>
+        <v>5.316890241411327</v>
       </c>
       <c r="E13">
-        <v>11.63680946619211</v>
+        <v>14.7289963766954</v>
       </c>
       <c r="F13">
-        <v>3.372201731476514</v>
+        <v>6.716348474558521</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.506397597439086</v>
+        <v>1.411543127871367</v>
       </c>
       <c r="D14">
-        <v>2.972706636849476</v>
+        <v>1.633761448005879</v>
       </c>
       <c r="E14">
-        <v>7.187708799752721</v>
+        <v>10.42525428951106</v>
       </c>
       <c r="F14">
-        <v>3.439720338283389</v>
+        <v>2.842828117671004</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.559334851717028</v>
+        <v>0.7633616479035708</v>
       </c>
       <c r="D15">
-        <v>5.316890241411327</v>
+        <v>0.8613842164765985</v>
       </c>
       <c r="E15">
-        <v>14.7289963766954</v>
+        <v>3.830614733118348</v>
       </c>
       <c r="F15">
-        <v>6.716348474558521</v>
+        <v>1.058632933227453</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.411543127871367</v>
+        <v>3.331292078751907</v>
       </c>
       <c r="D16">
-        <v>1.633761448005879</v>
+        <v>3.477893700249321</v>
       </c>
       <c r="E16">
-        <v>10.42525428951106</v>
+        <v>23.14400828699758</v>
       </c>
       <c r="F16">
-        <v>2.842828117671004</v>
+        <v>3.930924652927251</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7633616479035708</v>
+        <v>2.375233052651357</v>
       </c>
       <c r="D17">
-        <v>0.8613842164765985</v>
+        <v>2.534864515617121</v>
       </c>
       <c r="E17">
-        <v>3.830614733118348</v>
+        <v>14.91534362611232</v>
       </c>
       <c r="F17">
-        <v>1.058632933227453</v>
+        <v>4.24090053691384</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.331292078751907</v>
+        <v>1.359974057595035</v>
       </c>
       <c r="D18">
-        <v>3.477893700249321</v>
+        <v>1.47921741299132</v>
       </c>
       <c r="E18">
-        <v>23.14400828699758</v>
+        <v>8.285743661319227</v>
       </c>
       <c r="F18">
-        <v>3.930924652927251</v>
+        <v>2.130275124165461</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.375233052651357</v>
+        <v>2.916895514830423</v>
       </c>
       <c r="D19">
-        <v>2.534864515617121</v>
+        <v>3.514561241210464</v>
       </c>
       <c r="E19">
-        <v>14.91534362611232</v>
+        <v>15.05234264996018</v>
       </c>
       <c r="F19">
-        <v>4.24090053691384</v>
+        <v>4.153062640584515</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.359974057595035</v>
+        <v>1.402413354377466</v>
       </c>
       <c r="D20">
-        <v>1.47921741299132</v>
+        <v>1.731356763325897</v>
       </c>
       <c r="E20">
-        <v>8.285743661319227</v>
+        <v>16.97871799801606</v>
       </c>
       <c r="F20">
-        <v>2.130275124165461</v>
+        <v>1.475495783705967</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.916895514830423</v>
+        <v>2.165268255309837</v>
       </c>
       <c r="D21">
-        <v>3.514561241210464</v>
+        <v>2.82534572998103</v>
       </c>
       <c r="E21">
-        <v>15.05234264996018</v>
+        <v>7.318989082901737</v>
       </c>
       <c r="F21">
-        <v>4.153062640584515</v>
+        <v>2.612512401259318</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.402413354377466</v>
+        <v>1.794405732524719</v>
       </c>
       <c r="D22">
-        <v>1.731356763325897</v>
+        <v>1.955122077720189</v>
       </c>
       <c r="E22">
-        <v>16.97871799801606</v>
+        <v>12.21961796225321</v>
       </c>
       <c r="F22">
-        <v>1.475495783705967</v>
+        <v>1.841990486766178</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.165268255309837</v>
+        <v>2.626230416461955</v>
       </c>
       <c r="D23">
-        <v>2.82534572998103</v>
+        <v>2.958511559567871</v>
       </c>
       <c r="E23">
-        <v>7.318989082901737</v>
+        <v>10.87228057417071</v>
       </c>
       <c r="F23">
-        <v>2.612512401259318</v>
+        <v>3.905609463216641</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.794405732524719</v>
+        <v>1.464770278630254</v>
       </c>
       <c r="D24">
-        <v>1.955122077720189</v>
+        <v>1.661008173891747</v>
       </c>
       <c r="E24">
-        <v>12.21961796225321</v>
+        <v>6.69726405625477</v>
       </c>
       <c r="F24">
-        <v>1.841990486766178</v>
+        <v>2.350950212181545</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.626230416461955</v>
+        <v>0.4053747328894327</v>
       </c>
       <c r="D25">
-        <v>2.958511559567871</v>
+        <v>0.4898524393451557</v>
       </c>
       <c r="E25">
-        <v>10.87228057417071</v>
+        <v>2.83473287040234</v>
       </c>
       <c r="F25">
-        <v>3.905609463216641</v>
+        <v>0.6516307316560448</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.464770278630254</v>
+        <v>0.6261644211446504</v>
       </c>
       <c r="D26">
-        <v>1.661008173891747</v>
+        <v>0.7881177076420933</v>
       </c>
       <c r="E26">
-        <v>6.69726405625477</v>
+        <v>5.827032978586964</v>
       </c>
       <c r="F26">
-        <v>2.350950212181545</v>
+        <v>1.127706806878595</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.4053747328894327</v>
+        <v>1.830573870302852</v>
       </c>
       <c r="D27">
-        <v>0.4898524393451557</v>
+        <v>2.57369148707804</v>
       </c>
       <c r="E27">
-        <v>2.83473287040234</v>
+        <v>14.68249318552422</v>
       </c>
       <c r="F27">
-        <v>0.6516307316560448</v>
+        <v>3.322956974736195</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.6261644211446504</v>
+        <v>0.9382606684249629</v>
       </c>
       <c r="D28">
-        <v>0.7881177076420933</v>
+        <v>0.9768291478569228</v>
       </c>
       <c r="E28">
-        <v>5.827032978586964</v>
+        <v>4.820277658830985</v>
       </c>
       <c r="F28">
-        <v>1.127706806878595</v>
+        <v>1.209343482853683</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.830573870302852</v>
+        <v>0.6248145910883263</v>
       </c>
       <c r="D29">
-        <v>2.57369148707804</v>
+        <v>0.7552070096347471</v>
       </c>
       <c r="E29">
-        <v>14.68249318552422</v>
+        <v>4.1252416299868</v>
       </c>
       <c r="F29">
-        <v>3.322956974736195</v>
+        <v>1.002871580925252</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.9382606684249629</v>
+        <v>0.6453097505515043</v>
       </c>
       <c r="D30">
-        <v>0.9768291478569228</v>
+        <v>0.785827853392598</v>
       </c>
       <c r="E30">
-        <v>4.820277658830985</v>
+        <v>4.247057469021432</v>
       </c>
       <c r="F30">
-        <v>1.209343482853683</v>
+        <v>1.219835886649236</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.6248145910883263</v>
+        <v>1.034870988248596</v>
       </c>
       <c r="D31">
-        <v>0.7552070096347471</v>
+        <v>1.167026642605967</v>
       </c>
       <c r="E31">
-        <v>4.1252416299868</v>
+        <v>6.097521871635102</v>
       </c>
       <c r="F31">
-        <v>1.002871580925252</v>
+        <v>1.760958965964549</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.6453097505515043</v>
+        <v>1.439370135902651</v>
       </c>
       <c r="D32">
-        <v>0.785827853392598</v>
+        <v>1.886609893282634</v>
       </c>
       <c r="E32">
-        <v>4.247057469021432</v>
+        <v>10.34542547537065</v>
       </c>
       <c r="F32">
-        <v>1.219835886649236</v>
+        <v>3.052343692776768</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.034870988248596</v>
+        <v>0.9178021434994169</v>
       </c>
       <c r="D33">
-        <v>1.167026642605967</v>
+        <v>1.083791509051499</v>
       </c>
       <c r="E33">
-        <v>6.097521871635102</v>
+        <v>6.595265655554185</v>
       </c>
       <c r="F33">
-        <v>1.760958965964549</v>
+        <v>1.773137927340953</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.439370135902651</v>
+        <v>0.9446630104957685</v>
       </c>
       <c r="D34">
-        <v>1.886609893282634</v>
+        <v>1.017048022835695</v>
       </c>
       <c r="E34">
-        <v>10.34542547537065</v>
+        <v>4.300283172816767</v>
       </c>
       <c r="F34">
-        <v>3.052343692776768</v>
+        <v>1.737639868839111</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.9178021434994169</v>
+        <v>1.556691961967436</v>
       </c>
       <c r="D35">
-        <v>1.083791509051499</v>
+        <v>1.595791105258079</v>
       </c>
       <c r="E35">
-        <v>6.595265655554185</v>
+        <v>9.286796059726921</v>
       </c>
       <c r="F35">
-        <v>1.773137927340953</v>
+        <v>2.905605123926509</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.9446630104957685</v>
+        <v>2.572670725266786</v>
       </c>
       <c r="D36">
-        <v>1.017048022835695</v>
+        <v>2.59228929122744</v>
       </c>
       <c r="E36">
-        <v>4.300283172816767</v>
+        <v>11.92380662098822</v>
       </c>
       <c r="F36">
-        <v>1.737639868839111</v>
+        <v>4.874641128966734</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.556691961967436</v>
+        <v>1.479863411770962</v>
       </c>
       <c r="D37">
-        <v>1.595791105258079</v>
+        <v>1.658051849258672</v>
       </c>
       <c r="E37">
-        <v>9.286796059726921</v>
+        <v>6.872043049183441</v>
       </c>
       <c r="F37">
-        <v>2.905605123926509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2.572670725266786</v>
-      </c>
-      <c r="D38">
-        <v>2.59228929122744</v>
-      </c>
-      <c r="E38">
-        <v>11.92380662098822</v>
-      </c>
-      <c r="F38">
-        <v>4.874641128966734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.479863411770962</v>
-      </c>
-      <c r="D39">
-        <v>1.658051849258672</v>
-      </c>
-      <c r="E39">
-        <v>6.872043049183441</v>
-      </c>
-      <c r="F39">
         <v>2.711920771987672</v>
       </c>
     </row>
